--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2237046.534522837</v>
+        <v>-2239629.566592566</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>57.92518451681073</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>46.42246812243184</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646391</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>121.4856996582643</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>162.0606109397693</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>216.9591113435185</v>
       </c>
       <c r="Y5" t="n">
-        <v>204.0005215907908</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>98.76492394485699</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>43.19741148242353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>345.8079317615173</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.5949758433464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7.785128219330364</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>186.9197633212644</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.96838802184534</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>4.665762779846125</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>120.7871326503972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>94.05951414665373</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833824</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>104.1233804225855</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>27.68426743653123</v>
+        <v>65.2577375818823</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>219.0380704109151</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.87204320893564</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149754</v>
+        <v>171.0385136149751</v>
       </c>
       <c r="C28" t="n">
-        <v>158.453354531666</v>
+        <v>158.4533545316656</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796073</v>
+        <v>44.76793778823789</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559694</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.730671725307</v>
+        <v>156.7306717253066</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.5012462792617</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160334</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315982</v>
+        <v>57.58178014315949</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346827</v>
+        <v>172.2328194346824</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603264</v>
+        <v>208.6119837603261</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222823</v>
+        <v>277.3910078222819</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568661</v>
+        <v>243.3441767568658</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696291</v>
+        <v>277.7295317696288</v>
       </c>
       <c r="X28" t="n">
-        <v>191.3896651055953</v>
+        <v>216.916188822075</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851329</v>
+        <v>209.7911867851326</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3235,10 +3235,10 @@
         <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096058</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
         <v>56.98118882652581</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>810.5660676371783</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4343,37 +4343,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2682.502170148717</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.852659508903</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>1566.128424641712</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080113</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986287</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.2249443698243</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C4" t="n">
-        <v>189.2249443698243</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D4" t="n">
-        <v>189.2249443698243</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E4" t="n">
-        <v>189.2249443698243</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>189.2249443698242</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4498,13 +4498,13 @@
         <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068854</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459644</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
         <v>920.8870058181848</v>
@@ -4516,22 +4516,22 @@
         <v>920.8870058181848</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877108</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="U4" t="n">
-        <v>410.0175235133544</v>
+        <v>631.7841389438283</v>
       </c>
       <c r="V4" t="n">
-        <v>410.0175235133544</v>
+        <v>377.0996507379415</v>
       </c>
       <c r="W4" t="n">
-        <v>410.0175235133544</v>
+        <v>377.0996507379415</v>
       </c>
       <c r="X4" t="n">
-        <v>410.0175235133544</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.2249443698243</v>
+        <v>213.4020639300937</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4607,10 +4607,10 @@
         <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.266054653544</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4635,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.8443805240842</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="C7" t="n">
-        <v>460.8443805240842</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1091.274975395871</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1091.274975395871</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X7" t="n">
-        <v>863.285424497854</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y7" t="n">
-        <v>642.4928453543239</v>
+        <v>872.3234075408143</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1530.167618932618</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878908</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y8" t="n">
-        <v>1916.76745899674</v>
+        <v>2325.505862906803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.5770176220484</v>
+        <v>953.2602595377767</v>
       </c>
       <c r="C10" t="n">
-        <v>458.6408346941415</v>
+        <v>784.3240766098698</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>634.2074371975341</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>486.294343615141</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>339.4043961172306</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>171.7015594919496</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X10" t="n">
-        <v>848.3695967655785</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y10" t="n">
-        <v>627.5770176220484</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.927936255316</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782918</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038304</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235162</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235162</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579359</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373472</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336512</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138414</v>
+        <v>1202.941813438494</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703113</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5270,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1051.96493935487</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>883.0287564269627</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277359</v>
+        <v>732.9121170146269</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453428</v>
+        <v>584.9990234322338</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>438.1090759343235</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>270.9129766492035</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400713</v>
+        <v>741.8431516380882</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121644</v>
+        <v>572.9069687101813</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998287</v>
+        <v>422.7903292978456</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>422.7903292978456</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>422.7903292978456</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138412</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703111</v>
+        <v>923.4916164683279</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075813</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057251</v>
+        <v>956.9553291057247</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778182</v>
+        <v>788.0191461778178</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654825</v>
+        <v>637.902506765482</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830894</v>
+        <v>489.9894131830889</v>
       </c>
       <c r="F22" t="n">
-        <v>343.099465685179</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="G22" t="n">
         <v>175.9033664000583</v>
@@ -5905,13 +5905,13 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.737459147273</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>1177.747908249255</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057251</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.8461362382112</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C25" t="n">
-        <v>472.9099533103043</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D25" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y25" t="n">
-        <v>823.4946010684509</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>689.2228284949917</v>
+        <v>663.4384611046135</v>
       </c>
       <c r="C28" t="n">
-        <v>529.1689350286625</v>
+        <v>503.3845676382845</v>
       </c>
       <c r="D28" t="n">
-        <v>529.1689350286625</v>
+        <v>503.3845676382845</v>
       </c>
       <c r="E28" t="n">
-        <v>390.138130907847</v>
+        <v>458.1644284582462</v>
       </c>
       <c r="F28" t="n">
-        <v>252.1304728715143</v>
+        <v>458.1644284582462</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>299.8506186347042</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>167.0210769384802</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795879</v>
+        <v>182.7582133795882</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064188</v>
+        <v>453.1530078064194</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836511</v>
+        <v>852.2571338836522</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515978</v>
+        <v>1282.972368515979</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077279</v>
+        <v>1709.08777207728</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687556</v>
+        <v>2087.322584687558</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162407</v>
+        <v>2388.703572162409</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790599</v>
+        <v>2516.607338790601</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504579</v>
+        <v>2458.443924504581</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621061</v>
+        <v>2284.471379621064</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105579</v>
+        <v>2073.752204105583</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911354</v>
+        <v>1793.559266911359</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167045</v>
+        <v>1547.75706816705</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591662</v>
+        <v>1267.222187591667</v>
       </c>
       <c r="X28" t="n">
-        <v>1073.899293545606</v>
+        <v>1048.114926155228</v>
       </c>
       <c r="Y28" t="n">
-        <v>861.9890038636538</v>
+        <v>836.2046364732752</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319313</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150013</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942644</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6640,31 +6640,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,19 +6783,19 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,31 +6871,31 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6917,31 +6917,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656809</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7312,13 +7312,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
         <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>51.2625772713651</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>302.8185005949812</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,10 +22714,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>44.54010860076388</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -22756,22 +22756,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>63.64904444926788</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.863592160092</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.9188905722487</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.63391537253403</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>46.23519869957016</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823093</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>61.40075786968333</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>258.8387309000598</v>
+        <v>221.2652607547087</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>67.48492792567586</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.7126101431592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512505</v>
+        <v>139.8220064512502</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>92.87255829136907</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6275814559691</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.501246279262</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160367</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>25.52652371647999</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49356.14660531242</v>
+        <v>49356.14660531238</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675042</v>
       </c>
       <c r="F2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>60913.35287666378</v>
+        <v>60913.35287666382</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>61578.13273982124</v>
       </c>
-      <c r="N2" t="n">
-        <v>61578.13273982126</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982126</v>
-      </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.975650847</v>
+        <v>224565.9756508472</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006229</v>
+        <v>12392.94474006202</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569475</v>
+        <v>7034.773253569767</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006232</v>
+        <v>12392.94474006202</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820636</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820635</v>
       </c>
-      <c r="D4" t="n">
-        <v>93403.78684820636</v>
-      </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>17110.24080442845</v>
+        <v>17110.24080442856</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994855</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="L4" t="n">
         <v>22207.61133994852</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994857</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994858</v>
       </c>
       <c r="P4" t="n">
         <v>22207.61133994853</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101861.787764725</v>
+        <v>101861.7877647251</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1387907.18667268</v>
+        <v>-1388314.586210496</v>
       </c>
       <c r="C6" t="n">
         <v>-139759.5946697784</v>
@@ -26528,40 +26528,40 @@
         <v>-139759.5946697784</v>
       </c>
       <c r="E6" t="n">
-        <v>-380215.7487313669</v>
+        <v>-380250.4866568026</v>
       </c>
       <c r="F6" t="n">
-        <v>-54803.28692401173</v>
+        <v>-54838.02484944741</v>
       </c>
       <c r="G6" t="n">
-        <v>-54803.28692401174</v>
+        <v>-54838.02484944742</v>
       </c>
       <c r="H6" t="n">
-        <v>-54803.28692401171</v>
+        <v>-54838.02484944741</v>
       </c>
       <c r="I6" t="n">
-        <v>-54803.28692401171</v>
+        <v>-54838.02484944741</v>
       </c>
       <c r="J6" t="n">
-        <v>-282624.6513433367</v>
+        <v>-282646.8106721089</v>
       </c>
       <c r="K6" t="n">
-        <v>-76186.53919410499</v>
+        <v>-76186.5391941047</v>
       </c>
       <c r="L6" t="n">
-        <v>-63793.59445404267</v>
+        <v>-63793.59445404265</v>
       </c>
       <c r="M6" t="n">
         <v>-148848.6223895545</v>
       </c>
       <c r="N6" t="n">
-        <v>-63793.59445404266</v>
+        <v>-63793.5944540427</v>
       </c>
       <c r="O6" t="n">
-        <v>-70828.36770761212</v>
+        <v>-70828.36770761249</v>
       </c>
       <c r="P6" t="n">
-        <v>-76186.53919410499</v>
+        <v>-76186.5391941047</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507786</v>
+        <v>15.49118092507753</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961843</v>
+        <v>8.793466566962209</v>
       </c>
       <c r="P2" t="n">
-        <v>15.4911809250779</v>
+        <v>15.49118092507752</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507786</v>
+        <v>15.49118092507753</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>152.7719893349506</v>
       </c>
       <c r="Y5" t="n">
-        <v>182.2374170652627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>49.85054907335537</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>208.9402318414045</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>19.46496000949026</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>70.6429628127072</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>38.78989206777271</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-3.880510727564494e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.288636322337378e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961868</v>
+        <v>8.793466566962202</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,22 +31838,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>659.9976957396707</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O21" t="n">
-        <v>626.4629682828348</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>362.180468412921</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33503,22 +33503,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>440.316328560036</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>661.8411144019728</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.3312853305619</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294948</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>528.6559836563374</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O21" t="n">
-        <v>483.8667238383904</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991523</v>
+        <v>89.83994982991555</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765968</v>
+        <v>273.1260549765972</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860933</v>
+        <v>403.1354808860937</v>
       </c>
       <c r="M28" t="n">
-        <v>435.065893568007</v>
+        <v>435.0658935680073</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568693</v>
+        <v>430.4195995568696</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730073</v>
+        <v>382.0553662730076</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735868</v>
+        <v>304.4252398735871</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668602</v>
+        <v>129.1957238668606</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>224.339029438562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>248.1585668488238</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>519.7070804799545</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.34951124454038</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38187,13 +38187,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
